--- a/docs/Uploads/StudentData.xlsx
+++ b/docs/Uploads/StudentData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punj\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071060B-3108-4D71-9C57-58DFDFFFB4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DEB6C-FD79-4D9A-80D4-1EB292D139FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
     <t>punjprakashpp@gmail.com</t>
   </si>
   <si>
-    <t>~/Library/img/std/std.png</t>
+    <t>~/img/std/std.png</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="M2" s="2">
-        <v>44780</v>
+        <v>45511</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Uploads/StudentData.xlsx
+++ b/docs/Uploads/StudentData.xlsx
@@ -1,97 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punj\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punj\Documents\GitHub\udcatmbu\docs\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58DEB6C-FD79-4D9A-80D4-1EB292D139FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC94929-7E37-4652-8501-EC854EB86696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Session</t>
   </si>
   <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Pincode</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ImagePath</t>
-  </si>
-  <si>
-    <t>EntryDate</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
     <t>2022 - 2024</t>
   </si>
   <si>
-    <t>Punj Prakash</t>
-  </si>
-  <si>
-    <t>Hasanganj Road Mirjanhat</t>
-  </si>
-  <si>
-    <t>Bhagalpur</t>
-  </si>
-  <si>
-    <t>punjprakashpp@gmail.com</t>
-  </si>
-  <si>
-    <t>~/img/std/std.png</t>
+    <t>RollNo</t>
+  </si>
+  <si>
+    <t>RegNo</t>
+  </si>
+  <si>
+    <t>RegYear</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MidName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Punj</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Saurabh</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Suman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -110,9 +101,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,23 +139,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -183,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,9 +214,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,26 +249,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,26 +284,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,23 +460,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
     <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.88671875" customWidth="1"/>
@@ -530,89 +487,88 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
         <v>2210</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>9060311534</v>
+      <c r="C2" s="5">
+        <v>184630004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2018</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>812005</v>
-      </c>
-      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6">
         <v>37080</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="6"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2211</v>
+      </c>
+      <c r="C3" s="5">
+        <v>184630005</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2018</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2">
-        <v>45511</v>
-      </c>
+      <c r="H3" s="6">
+        <v>36842</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{2BDD692F-1C3C-47DC-B9F8-710A8A143052}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>